--- a/AAII_Financials/Yearly/EEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EEGI_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/EEGI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EEGI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>EEGI</t>
   </si>
@@ -666,8 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -691,8 +690,8 @@
       <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
-        <v>38656</v>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
@@ -716,22 +715,22 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -742,8 +741,8 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
-        <v>700</v>
+      <c r="E9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -769,8 +768,8 @@
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
-        <v>300</v>
+      <c r="E10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -927,8 +926,8 @@
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="3">
-        <v>1000</v>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -954,8 +953,8 @@
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -994,8 +993,8 @@
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1021,8 +1020,8 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,26 +1044,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1075,8 +1074,8 @@
       <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1156,8 +1155,8 @@
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1182,8 @@
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>200</v>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1234,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1318,8 +1317,8 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1345,8 +1344,8 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1398,8 @@
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1434,8 +1433,8 @@
       <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
-        <v>38656</v>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
@@ -1490,17 +1489,17 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1508,26 +1507,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
@@ -1535,26 +1534,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1562,26 +1561,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1589,26 +1588,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1623,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1670,26 +1669,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1697,26 +1696,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1778,26 +1777,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1839,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1888,23 +1887,23 @@
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1918,8 +1917,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1939,26 +1938,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1972,8 +1971,8 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="3">
-        <v>2800</v>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2000,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2134,8 +2133,8 @@
       <c r="E66" s="3">
         <v>0</v>
       </c>
-      <c r="F66" s="3">
-        <v>3200</v>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2282,8 +2281,8 @@
       <c r="E72" s="3">
         <v>-15100</v>
       </c>
-      <c r="F72" s="3">
-        <v>-15300</v>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2390,8 +2389,8 @@
       <c r="E76" s="3">
         <v>0</v>
       </c>
-      <c r="F76" s="3">
-        <v>-100</v>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2449,8 +2448,8 @@
       <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
-        <v>38656</v>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
@@ -2473,8 +2472,8 @@
       <c r="D81" s="3">
         <v>0</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2678,8 +2677,8 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>300</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2796,23 +2795,23 @@
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2947,8 +2946,8 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>-100</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2998,23 +2997,23 @@
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3"/>
     </row>
